--- a/500all/speech_level/speeches_CHRG-114hhrg98280.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98280.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400137</t>
   </si>
   <si>
-    <t>J. Randy Forbes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Forbes. We would like to welcome our witnesses today to this hearing on game-changing innovations and the future of surface warfare.    As we have previously told you, we may be interrupted with a vote. So Mr. Courtney and I both have agreed that we are just going to put our opening statements in for the record so that we can go ahead and begin and try to get all the testimony in and then hopefully get to our questions and answers.    Today joining us are two thought leaders in the area of surface warfare, Mr. Bryan McGrath, the Managing Director of the FerryBridge Group, and Mr. Jonathan Solomon, Senior Analyst, Systems Planning and Analysis, Incorporated.    And gentlemen, both of you, we appreciate you being here today.    And Bryan, it is my understanding you are going to start us off. So with that, we yield the floor to you.    First of all, Joe, did you have anything you wanted to add?    [The prepared statement of Mr. Forbes can be found in the Appendix on page 19.]</t>
   </si>
   <si>
     <t>412193</t>
   </si>
   <si>
-    <t>Joe Courtney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Courtney. No--I waive my opening statement.    [The prepared statement of Mr. Courtney can be found in the Appendix on page 21.]</t>
   </si>
   <si>
@@ -73,18 +67,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>McGrath</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McGrath. Great. Chairman Forbes, thank you. Ranking Member Courtney, members of the subcommittee, thanks again for the opportunity to testify with you on a matter of importance to our Navy and to the Nation.    The discussion today revolves around game changers and innovations in the future of surface warfare. And I have a few of those in my written statement that I submitted. I'd love to answer some questions about them if you have them later.    Some of those game changers include--they flow almost all from the concept of Distributed Lethality which is something I know you have heard a lot about lately, including long-range surface-to-surface missile improvements, multi-source maritime targeting and tracking, real-time ISR [intelligence, surveillance, and reconnaissance] vulnerability assessment, electromagnetic spectrum warfare and medium-altitude long-endurance UAVs [unmanned aerial vehicles].    But I think before we jump into the sort of tactical and operational stuff, I would like to elevate it back to some first things.    I realize no one was being glib when the title of this hearing was chosen, but I think it is important that we think about exactly what game it is that we are seeking to change.    And as we watch China reprise its ancient role of dominance in the East and we watch Russia exhibit its modern version of its historic geographic paranoia, we are confronted with the obvious reality of multi-polar, great-power competition.    This reality leads me to conclude that the game, for want of a better term, is conventional deterrence. This is a game for which I think the United States Navy is somewhat less prepared than I would like.    There are many reasons for this, and we can discuss them as you desire. Among them, however, is the accreted effects of decades without a competitor and the Navy's slow realization that this is no longer the case.    That this realization has occurred late is bad enough, but it is compounded by the impact of ruinous resource constraints.    The second issue, and what I would like to close on in this statement, is I think we have a little bit of a collective fascination with technology. Senior officials in the Defense Department will tell you with a straight face that the Third Offset Strategy is not all about technology and then commence a 40-minute discussion about the Third Offset Strategy that is all technology.    Offset strategies one and two occurred when the United States dominated the technology world worldwide. And even within the United States, technology was dominated by the government and by the military. Neither of those conditions applies today.    Technology has been commercialized and globalized. And trying to pull a rabbit out of the technology hat again is going to prove much more difficult this time. There is no substitute for the Nation spending what is required in order to see to its security and prosperity. There is no substitute for the time-honored contributions of stockpiled weapons, powerful, forward-deployed surface ships, combat-ready surge forces, and a robust industrial base.    There is no substitute for the psychology of conventional deterrence, which suggests to potential aggressors that not only is your aggression going to be punished, but it is likely to be unsuccessful.    I counsel against ignoring these simpler notions while we search for technological silver bullets. World leadership cannot be had on the cheap and we must decide whether we continue to value our position and role in the world and then resource it accordingly.    Thank you, and I look forward to your questions.    [The prepared statement of Mr. McGrath can be found in the Appendix on page 24.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Forbes. Mr. Solomon.</t>
   </si>
   <si>
-    <t>Solomon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Solomon. Thank you. Thank you, Chairman Forbes----</t>
   </si>
   <si>
@@ -127,9 +115,6 @@
     <t>412567</t>
   </si>
   <si>
-    <t>Jim Bridenstine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman.    I am a Navy pilot myself. Loved your discussion about the E-2 Hawkeye. I was one of those guys that flew off the carrier. And of course, we did tactics so that they wouldn't know where we were coming from necessarily.    And then, of course, doing the EMCON recoveries required high-intensity operations from the Hawkeye because we would offset a pretty significant distance and then control the recovery.    I would just share with you, one of the challenges we faced over and over again with network-centric warfare as a capability was the interoperations of all the different systems.    We would have, you know, one kind of system for the E-2 Hawkeye, and then the other systems weren't necessarily interoperable with what the Hawkeye was using at the time.    Is there evidence today that there is more interoperability and integration in this network-centric capability that we are developing?</t>
   </si>
   <si>
@@ -190,9 +175,6 @@
     <t>412532</t>
   </si>
   <si>
-    <t>Tulsi Gabbard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Mr. Chairman.    Thanks, gentlemen, for being here.    You know, Mr. Solomon, you made a lot of references to the Cold War and some of the things that we were able to do then. Can you talk about the contemporary environment that we are operating in with both our advanced technology and others and either really what the differences are when you are talking about deception, between now and, you know, a previous generation?</t>
   </si>
   <si>
@@ -220,9 +202,6 @@
     <t>400655</t>
   </si>
   <si>
-    <t>K. Michael Conaway</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conaway. All right. Thank you, Chairman.    Can you talk to us about where lasers and electromagnetic railguns and even improvements in powder projectiles fit within this innovative timeframe? And are those something that the Navy is serious about? Where do they fit?</t>
   </si>
   <si>
@@ -254,9 +233,6 @@
   </si>
   <si>
     <t>412650</t>
-  </si>
-  <si>
-    <t>Steve Russell</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Mr. Chairman.    And you know, I had almost identical questions, so along that vein, and then I will add an extra in.    It would seem to me in a 40- to 50-year overmatch capacity, you know, we are going to continue to have diminishing budgets, China will continue to have increasing budgets. That will create a delta that will be double between now and 2030 probably of $2 trillion.    Given that, we have got some great potential with the railgun technologies. So when you talk expenses, are you saying is that based upon the power generation piece of this? Is it based upon the ordnance piece of it? Where would that be?</t>
@@ -706,11 +682,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -730,13 +704,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -758,11 +730,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -782,13 +752,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -810,11 +778,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -834,13 +800,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -862,11 +826,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -886,13 +848,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -914,11 +874,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -938,13 +896,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -966,11 +922,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -990,13 +944,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1018,11 +970,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1042,13 +992,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1068,13 +1016,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1094,13 +1040,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1120,13 +1064,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1148,11 +1090,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1172,13 +1112,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1198,13 +1136,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1224,13 +1160,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1250,13 +1184,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1276,13 +1208,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
         <v>37</v>
-      </c>
-      <c r="H24" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1302,13 +1232,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1328,13 +1256,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1354,13 +1280,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1380,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1406,13 +1328,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1432,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1458,13 +1376,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1484,13 +1400,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1510,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1536,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1562,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1588,13 +1496,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1614,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1640,13 +1544,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1666,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1692,13 +1592,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1720,11 +1618,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1744,13 +1640,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" t="s">
-        <v>58</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1770,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1796,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" t="s">
-        <v>58</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1822,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1848,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
         <v>57</v>
-      </c>
-      <c r="G46" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1874,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1900,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48" t="s">
-        <v>58</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1928,11 +1810,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1952,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1978,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2004,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
-      </c>
-      <c r="G52" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2030,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2056,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2082,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2108,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
         <v>68</v>
-      </c>
-      <c r="H56" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2134,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2160,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2188,11 +2050,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2212,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>79</v>
-      </c>
-      <c r="G60" t="s">
-        <v>80</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2238,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2264,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>79</v>
-      </c>
-      <c r="G62" t="s">
-        <v>80</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2290,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2316,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>79</v>
-      </c>
-      <c r="G64" t="s">
-        <v>80</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2342,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2368,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
         <v>79</v>
-      </c>
-      <c r="G66" t="s">
-        <v>80</v>
-      </c>
-      <c r="H66" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2394,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2420,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>79</v>
-      </c>
-      <c r="G68" t="s">
-        <v>80</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2446,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2472,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>79</v>
-      </c>
-      <c r="G70" t="s">
-        <v>80</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2498,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2524,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>79</v>
-      </c>
-      <c r="G72" t="s">
-        <v>80</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2552,11 +2386,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2576,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2604,11 +2434,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2628,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2656,11 +2482,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98280.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98280.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400137</t>
   </si>
   <si>
+    <t>Forbes</t>
+  </si>
+  <si>
+    <t>J.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Forbes. We would like to welcome our witnesses today to this hearing on game-changing innovations and the future of surface warfare.    As we have previously told you, we may be interrupted with a vote. So Mr. Courtney and I both have agreed that we are just going to put our opening statements in for the record so that we can go ahead and begin and try to get all the testimony in and then hopefully get to our questions and answers.    Today joining us are two thought leaders in the area of surface warfare, Mr. Bryan McGrath, the Managing Director of the FerryBridge Group, and Mr. Jonathan Solomon, Senior Analyst, Systems Planning and Analysis, Incorporated.    And gentlemen, both of you, we appreciate you being here today.    And Bryan, it is my understanding you are going to start us off. So with that, we yield the floor to you.    First of all, Joe, did you have anything you wanted to add?    [The prepared statement of Mr. Forbes can be found in the Appendix on page 19.]</t>
   </si>
   <si>
     <t>412193</t>
   </si>
   <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Courtney. No--I waive my opening statement.    [The prepared statement of Mr. Courtney can be found in the Appendix on page 21.]</t>
   </si>
   <si>
@@ -67,12 +82,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>McGrath</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McGrath. Great. Chairman Forbes, thank you. Ranking Member Courtney, members of the subcommittee, thanks again for the opportunity to testify with you on a matter of importance to our Navy and to the Nation.    The discussion today revolves around game changers and innovations in the future of surface warfare. And I have a few of those in my written statement that I submitted. I'd love to answer some questions about them if you have them later.    Some of those game changers include--they flow almost all from the concept of Distributed Lethality which is something I know you have heard a lot about lately, including long-range surface-to-surface missile improvements, multi-source maritime targeting and tracking, real-time ISR [intelligence, surveillance, and reconnaissance] vulnerability assessment, electromagnetic spectrum warfare and medium-altitude long-endurance UAVs [unmanned aerial vehicles].    But I think before we jump into the sort of tactical and operational stuff, I would like to elevate it back to some first things.    I realize no one was being glib when the title of this hearing was chosen, but I think it is important that we think about exactly what game it is that we are seeking to change.    And as we watch China reprise its ancient role of dominance in the East and we watch Russia exhibit its modern version of its historic geographic paranoia, we are confronted with the obvious reality of multi-polar, great-power competition.    This reality leads me to conclude that the game, for want of a better term, is conventional deterrence. This is a game for which I think the United States Navy is somewhat less prepared than I would like.    There are many reasons for this, and we can discuss them as you desire. Among them, however, is the accreted effects of decades without a competitor and the Navy's slow realization that this is no longer the case.    That this realization has occurred late is bad enough, but it is compounded by the impact of ruinous resource constraints.    The second issue, and what I would like to close on in this statement, is I think we have a little bit of a collective fascination with technology. Senior officials in the Defense Department will tell you with a straight face that the Third Offset Strategy is not all about technology and then commence a 40-minute discussion about the Third Offset Strategy that is all technology.    Offset strategies one and two occurred when the United States dominated the technology world worldwide. And even within the United States, technology was dominated by the government and by the military. Neither of those conditions applies today.    Technology has been commercialized and globalized. And trying to pull a rabbit out of the technology hat again is going to prove much more difficult this time. There is no substitute for the Nation spending what is required in order to see to its security and prosperity. There is no substitute for the time-honored contributions of stockpiled weapons, powerful, forward-deployed surface ships, combat-ready surge forces, and a robust industrial base.    There is no substitute for the psychology of conventional deterrence, which suggests to potential aggressors that not only is your aggression going to be punished, but it is likely to be unsuccessful.    I counsel against ignoring these simpler notions while we search for technological silver bullets. World leadership cannot be had on the cheap and we must decide whether we continue to value our position and role in the world and then resource it accordingly.    Thank you, and I look forward to your questions.    [The prepared statement of Mr. McGrath can be found in the Appendix on page 24.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Forbes. Mr. Solomon.</t>
   </si>
   <si>
+    <t>Solomon</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Solomon. Thank you. Thank you, Chairman Forbes----</t>
   </si>
   <si>
@@ -115,6 +136,12 @@
     <t>412567</t>
   </si>
   <si>
+    <t>Bridenstine</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman.    I am a Navy pilot myself. Loved your discussion about the E-2 Hawkeye. I was one of those guys that flew off the carrier. And of course, we did tactics so that they wouldn't know where we were coming from necessarily.    And then, of course, doing the EMCON recoveries required high-intensity operations from the Hawkeye because we would offset a pretty significant distance and then control the recovery.    I would just share with you, one of the challenges we faced over and over again with network-centric warfare as a capability was the interoperations of all the different systems.    We would have, you know, one kind of system for the E-2 Hawkeye, and then the other systems weren't necessarily interoperable with what the Hawkeye was using at the time.    Is there evidence today that there is more interoperability and integration in this network-centric capability that we are developing?</t>
   </si>
   <si>
@@ -175,6 +202,12 @@
     <t>412532</t>
   </si>
   <si>
+    <t>Gabbard</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Mr. Chairman.    Thanks, gentlemen, for being here.    You know, Mr. Solomon, you made a lot of references to the Cold War and some of the things that we were able to do then. Can you talk about the contemporary environment that we are operating in with both our advanced technology and others and either really what the differences are when you are talking about deception, between now and, you know, a previous generation?</t>
   </si>
   <si>
@@ -202,6 +235,12 @@
     <t>400655</t>
   </si>
   <si>
+    <t>Conaway</t>
+  </si>
+  <si>
+    <t>K.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conaway. All right. Thank you, Chairman.    Can you talk to us about where lasers and electromagnetic railguns and even improvements in powder projectiles fit within this innovative timeframe? And are those something that the Navy is serious about? Where do they fit?</t>
   </si>
   <si>
@@ -233,6 +272,12 @@
   </si>
   <si>
     <t>412650</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Steve</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Mr. Chairman.    And you know, I had almost identical questions, so along that vein, and then I will add an extra in.    It would seem to me in a 40- to 50-year overmatch capacity, you know, we are going to continue to have diminishing budgets, China will continue to have increasing budgets. That will create a delta that will be double between now and 2030 probably of $2 trillion.    Given that, we have got some great potential with the railgun technologies. So when you talk expenses, are you saying is that based upon the power generation piece of this? Is it based upon the ordnance piece of it? Where would that be?</t>
@@ -632,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,7 +685,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,1829 +707,2148 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
       <c r="H28" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
       <c r="H32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G34" t="s">
+        <v>40</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
       <c r="H36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
       <c r="H38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G40" t="s">
+        <v>40</v>
+      </c>
       <c r="H40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G42" t="s">
+        <v>62</v>
+      </c>
       <c r="H42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G44" t="s">
+        <v>62</v>
+      </c>
       <c r="H44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G46" t="s">
+        <v>62</v>
+      </c>
       <c r="H46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G48" t="s">
+        <v>62</v>
+      </c>
       <c r="H48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G50" t="s">
+        <v>73</v>
+      </c>
       <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G52" t="s">
+        <v>73</v>
+      </c>
       <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G54" t="s">
+        <v>73</v>
+      </c>
       <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G56" t="s">
+        <v>73</v>
+      </c>
       <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G58" t="s">
+        <v>73</v>
+      </c>
       <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>72</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G60" t="s">
+        <v>86</v>
+      </c>
       <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>72</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G62" t="s">
+        <v>86</v>
+      </c>
       <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>72</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G64" t="s">
+        <v>86</v>
+      </c>
       <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>72</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G66" t="s">
+        <v>86</v>
+      </c>
       <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>72</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G68" t="s">
+        <v>86</v>
+      </c>
       <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>72</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G70" t="s">
+        <v>86</v>
+      </c>
       <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>72</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G72" t="s">
+        <v>86</v>
+      </c>
       <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>89</v>
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98280.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98280.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400137</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Forbes</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412193</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Courtney</t>
   </si>
   <si>
@@ -134,6 +143,9 @@
   </si>
   <si>
     <t>412567</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Bridenstine</t>
@@ -677,7 +689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,7 +697,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,2145 +722,2312 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H40" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G42" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G44" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G46" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G48" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="H48" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="H58" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>22</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G64" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>22</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G66" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>22</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G68" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I68" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>22</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G70" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>22</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G72" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="H72" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>22</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>25</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>104</v>
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
